--- a/ResultsAndDocumentation/Dane.xlsx
+++ b/ResultsAndDocumentation/Dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Java_Tests_Tables\ResultsAndDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E4C718-ECA0-4354-8805-688AD4FE688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0046C09-7F0B-4AE1-BAD9-332C6EB8A32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0BE3F1F-85B0-4CF1-B9A1-68B40F458FEB}"/>
   </bookViews>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Liczba danych</t>
-  </si>
-  <si>
-    <t>Wstawianie</t>
-  </si>
-  <si>
-    <t>Usuwanie</t>
-  </si>
-  <si>
-    <t>Wyszukiwanie</t>
   </si>
   <si>
     <t>Lista jednokierunkowa</t>
@@ -57,6 +48,21 @@
   </si>
   <si>
     <t>Tablica wbudowana</t>
+  </si>
+  <si>
+    <t>Zakres liczb</t>
+  </si>
+  <si>
+    <t>Wstawianie [ms]</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie [ms]</t>
+  </si>
+  <si>
+    <t>Usuwanie [ms]</t>
+  </si>
+  <si>
+    <t>0-100000</t>
   </si>
 </sst>
 </file>
@@ -110,6 +116,1054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Operacje na tablicach</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wstawianie [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Lista jednokierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lista dwukierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tablica wbudowana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFC5-4FA6-B62A-1A957BD7E947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wyszukiwanie [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Lista jednokierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lista dwukierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tablica wbudowana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFC5-4FA6-B62A-1A957BD7E947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Usuwanie [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Lista jednokierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lista dwukierunkowa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tablica wbudowana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFC5-4FA6-B62A-1A957BD7E947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="26109615"/>
+        <c:axId val="26112495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26109615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26112495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26112495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26109615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1897380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46011AF5-AC91-C16B-258C-9305B97A0863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,56 +1483,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48787246-C308-4B4B-8682-F0BE9F969F8C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>14282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2">
+        <v>11053</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15046</v>
+      </c>
+      <c r="C3">
+        <v>6585</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2720</v>
+      </c>
+      <c r="D4">
+        <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ed5c285a-02fc-4de1-b801-ec315dfe23b1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D802CB664997B7448E012D0E385C80EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9cb2fc32f165ca6cde85c7ba0e27165">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="55ff504a-0255-4128-ae30-5a56b991064a" xmlns:ns4="ed5c285a-02fc-4de1-b801-ec315dfe23b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43f3cba39d8fe8fe89c08990a3ba9cf0" ns3:_="" ns4:_="">
     <xsd:import namespace="55ff504a-0255-4128-ae30-5a56b991064a"/>
@@ -711,14 +1816,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ed5c285a-02fc-4de1-b801-ec315dfe23b1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -729,6 +1826,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CF5EEA5-A7D1-4D5A-8B85-BD2A60D97BFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ed5c285a-02fc-4de1-b801-ec315dfe23b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="55ff504a-0255-4128-ae30-5a56b991064a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E397A7-BC7E-4B79-95A5-25FBA26506BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -747,23 +1861,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CF5EEA5-A7D1-4D5A-8B85-BD2A60D97BFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ed5c285a-02fc-4de1-b801-ec315dfe23b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="55ff504a-0255-4128-ae30-5a56b991064a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF6B5CA-93F6-41DD-8B14-A6AE63E96A62}">
   <ds:schemaRefs>
